--- a/Decision_Template.xlsx
+++ b/Decision_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sm/Documents/R Training/MFF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7908C8FB-4FE8-4D44-A2F2-4F825D6CA8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E3B119-819B-A047-AB1E-736CE42A2294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16180" xr2:uid="{DFAAD09B-4BEE-7243-AB74-37A21C14D662}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="84">
   <si>
     <t>Outcome</t>
   </si>
@@ -74,9 +74,6 @@
     <t>Easy to apply</t>
   </si>
   <si>
-    <t>Visual aid</t>
-  </si>
-  <si>
     <t>Facility</t>
   </si>
   <si>
@@ -132,9 +129,6 @@
   </si>
   <si>
     <t>Study habit</t>
-  </si>
-  <si>
-    <t>Branch_V_4</t>
   </si>
   <si>
     <t>Motivation to learn</t>
@@ -243,9 +237,6 @@
     <t xml:space="preserve">Convenience </t>
   </si>
   <si>
-    <t>Class scheduled close to training</t>
-  </si>
-  <si>
     <t>Literature_priors</t>
   </si>
   <si>
@@ -302,14 +293,56 @@
     <t>Family environment</t>
   </si>
   <si>
-    <t>Community environment</t>
+    <t>Survey</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>Control/ Survey</t>
+  </si>
+  <si>
+    <t>Relevant</t>
+  </si>
+  <si>
+    <t>Resourceful</t>
+  </si>
+  <si>
+    <t>Clarity</t>
+  </si>
+  <si>
+    <t>Simplicity</t>
+  </si>
+  <si>
+    <t>Control/ survey</t>
+  </si>
+  <si>
+    <t>Observe</t>
+  </si>
+  <si>
+    <t>Knowledge/ experience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extra time </t>
+  </si>
+  <si>
+    <t>Willingness</t>
+  </si>
+  <si>
+    <t>Motivation</t>
+  </si>
+  <si>
+    <t>Control/Survey</t>
+  </si>
+  <si>
+    <t>Situation interest</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -350,8 +383,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -409,6 +449,72 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD6DCE4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6E0B4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE4D6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBF99B4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,7 +540,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -443,7 +549,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -453,9 +558,22 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,6 +582,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFBF99B4"/>
+      <color rgb="FFC285B4"/>
       <color rgb="FFAF44BF"/>
     </mruColors>
   </colors>
@@ -775,10 +895,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7D80276-F351-2F45-A027-229F541F1A79}">
-  <dimension ref="A1:N141"/>
+  <dimension ref="A1:M83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -790,555 +910,790 @@
     <col min="7" max="7" width="31.5" customWidth="1"/>
     <col min="8" max="8" width="35.33203125" customWidth="1"/>
     <col min="9" max="9" width="29.1640625" customWidth="1"/>
-    <col min="10" max="10" width="32.6640625" customWidth="1"/>
-    <col min="11" max="11" width="31.6640625" customWidth="1"/>
-    <col min="13" max="13" width="16.83203125" customWidth="1"/>
-    <col min="14" max="14" width="21.33203125" customWidth="1"/>
+    <col min="10" max="10" width="31.6640625" customWidth="1"/>
+    <col min="12" max="12" width="16.83203125" customWidth="1"/>
+    <col min="13" max="13" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="20" t="s">
+      <c r="B1" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="20" t="s">
+      <c r="D1" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="M1" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I1" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I9" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I10" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H11" t="s">
+        <v>56</v>
+      </c>
+      <c r="J11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G12" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" t="s">
+        <v>51</v>
+      </c>
+      <c r="J12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H13" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="6" t="s">
+      <c r="J13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="H17" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="H18" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" t="s">
+        <v>72</v>
+      </c>
+      <c r="J19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="I20" t="s">
+        <v>73</v>
+      </c>
+      <c r="J20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="H21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" t="s">
+        <v>74</v>
+      </c>
+      <c r="J21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="I22" t="s">
+        <v>75</v>
+      </c>
+      <c r="J22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="H23" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="G24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="M2" t="s">
+    </row>
+    <row r="25" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="H25" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="G26" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H26" t="s">
         <v>67</v>
       </c>
-      <c r="N2" t="s">
+      <c r="J26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="H27" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="G28" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J28" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="N3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="G5" t="s">
+    <row r="29" spans="4:10" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="E30" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="H31" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>60</v>
+      </c>
+      <c r="G32" t="s">
+        <v>83</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="4:10" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="34" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34" t="s">
+        <v>50</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="H35" t="s">
+        <v>43</v>
+      </c>
+      <c r="I35" t="s">
+        <v>8</v>
+      </c>
+      <c r="J35" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="I36" t="s">
+        <v>78</v>
+      </c>
+      <c r="J36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="4:10" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>61</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G38" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" t="s">
-        <v>68</v>
-      </c>
-      <c r="N5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="N6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="F10" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="E13" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H14" t="s">
-        <v>55</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I15" s="15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I16" s="17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="H17" t="s">
-        <v>58</v>
-      </c>
-      <c r="I17" s="18"/>
-    </row>
-    <row r="18" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="I18" s="18"/>
-    </row>
-    <row r="19" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="I19" s="18"/>
-    </row>
-    <row r="21" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="G21" t="s">
-        <v>39</v>
-      </c>
-      <c r="H21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="H22" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="H23" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="I23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="I24" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="H25" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="H26" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E28" t="s">
-        <v>52</v>
-      </c>
-      <c r="G28" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="H30" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="H32" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="G35" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="G38" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="G41" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="46" spans="5:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="G39" t="s">
+        <v>79</v>
+      </c>
+      <c r="J39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="G40" s="22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="G41" s="24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="4:10" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
+        <v>62</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G43" t="s">
+        <v>67</v>
+      </c>
+      <c r="J43" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="G44" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="4:10" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="4:10" x14ac:dyDescent="0.2">
       <c r="E46" t="s">
         <v>52</v>
       </c>
-      <c r="F46" s="9" t="s">
+      <c r="F46" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
+        <v>13</v>
+      </c>
+      <c r="J46" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="G47" t="s">
+        <v>26</v>
+      </c>
+      <c r="J47" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="50" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="E50" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="F50" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="G50" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="H50" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="I50" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="J50" s="32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" t="s">
+        <v>61</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G51" t="s">
+        <v>32</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G52" t="s">
+        <v>33</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D54" t="s">
+        <v>62</v>
+      </c>
+      <c r="E54" t="s">
+        <v>50</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G54" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="H54" t="s">
+        <v>14</v>
+      </c>
+      <c r="J54" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H55" t="s">
         <v>20</v>
       </c>
-      <c r="G46" t="s">
+      <c r="J55" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G56" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H56" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I56" s="26"/>
+      <c r="J56" s="26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H57" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="I57" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="J57" s="26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H58" s="26"/>
+      <c r="I58" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J58" s="26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H59" s="26"/>
+      <c r="I59" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="J59" s="26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H60" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="I60" s="26"/>
+      <c r="J60" s="26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G61" t="s">
+        <v>37</v>
+      </c>
+      <c r="H61" t="s">
+        <v>51</v>
+      </c>
+      <c r="J61" s="26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="I62" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J62" s="26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I63" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J63" s="26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H64" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J64" s="26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="65" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="E65" t="s">
+        <v>52</v>
+      </c>
+      <c r="G65" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H65" t="s">
+        <v>11</v>
+      </c>
+      <c r="I65" t="s">
+        <v>72</v>
+      </c>
+      <c r="J65" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="66" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="I66" t="s">
+        <v>73</v>
+      </c>
+      <c r="J66" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="67" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="H67" t="s">
+        <v>10</v>
+      </c>
+      <c r="I67" t="s">
+        <v>74</v>
+      </c>
+      <c r="J67" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="68" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="I68" t="s">
+        <v>75</v>
+      </c>
+      <c r="J68" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="69" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="H69" t="s">
+        <v>21</v>
+      </c>
+      <c r="J69" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="70" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="G70" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="71" spans="4:10" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="72" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="F72" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G72" t="s">
+        <v>28</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="H73" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D74" t="s">
+        <v>60</v>
+      </c>
+      <c r="G74" t="s">
         <v>29</v>
       </c>
-      <c r="H46" s="2" t="s">
+      <c r="H74" s="15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="H47" s="1" t="s">
+    <row r="75" spans="4:10" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="76" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D76" t="s">
+        <v>59</v>
+      </c>
+      <c r="E76" t="s">
+        <v>50</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H76" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="51" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="G51" t="s">
-        <v>30</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="52" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D52" t="s">
-        <v>63</v>
-      </c>
-      <c r="H52" s="16" t="s">
+      <c r="I76" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J76" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="77" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="H77" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="56" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D56" t="s">
-        <v>62</v>
-      </c>
-      <c r="E56" t="s">
+      <c r="I77" t="s">
+        <v>8</v>
+      </c>
+      <c r="J77" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="78" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="I78" t="s">
+        <v>78</v>
+      </c>
+      <c r="J78" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="79" spans="4:10" s="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="80" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="E80" t="s">
         <v>52</v>
       </c>
-      <c r="F56" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I56" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="H59" t="s">
-        <v>45</v>
-      </c>
-      <c r="I59" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D63" t="s">
-        <v>64</v>
-      </c>
-      <c r="F63" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D68" t="s">
-        <v>65</v>
-      </c>
-      <c r="F68" s="12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E72" t="s">
-        <v>54</v>
-      </c>
-      <c r="F72" s="9" t="s">
+      <c r="F80" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G80" t="s">
         <v>13</v>
       </c>
-      <c r="G72" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G75" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="80" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B80" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C80" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D80" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="E80" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="F80" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="G80" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="H80" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="I80" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="J80" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="K80" s="20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>4</v>
-      </c>
-      <c r="B81" t="s">
+      <c r="J80" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="81" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G81" t="s">
         <v>26</v>
       </c>
-      <c r="D81" t="s">
-        <v>64</v>
-      </c>
-      <c r="F81" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G81" t="s">
-        <v>34</v>
-      </c>
-      <c r="H81" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G84" t="s">
-        <v>35</v>
-      </c>
-      <c r="H84" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D89" t="s">
-        <v>65</v>
-      </c>
-      <c r="E89" t="s">
-        <v>52</v>
-      </c>
-      <c r="F89" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G89" t="s">
-        <v>38</v>
-      </c>
-      <c r="H89" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H90" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G92" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G95" t="s">
-        <v>39</v>
-      </c>
-      <c r="H95" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="97" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E97" t="s">
-        <v>48</v>
-      </c>
-      <c r="H97" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="I97" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="98" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="I98" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J98" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="100" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="H100" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="102" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E102" t="s">
-        <v>54</v>
-      </c>
-      <c r="G102" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H102" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="104" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="H104" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="106" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="H106" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="109" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="G109" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="111" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="G111" s="18"/>
-    </row>
-    <row r="119" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="F119" t="s">
-        <v>20</v>
-      </c>
-      <c r="G119" t="s">
-        <v>29</v>
-      </c>
-      <c r="H119" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="120" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="H120" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="124" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="G124" t="s">
-        <v>30</v>
-      </c>
-      <c r="H124" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="125" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D125" t="s">
-        <v>63</v>
-      </c>
-      <c r="H125" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="129" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D129" t="s">
-        <v>62</v>
-      </c>
-      <c r="E129" t="s">
-        <v>52</v>
-      </c>
-      <c r="F129" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G129" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H129" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I129" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="132" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="H132" t="s">
-        <v>45</v>
-      </c>
-      <c r="I132" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="135" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="E135" t="s">
-        <v>54</v>
-      </c>
-      <c r="F135" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G135" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="137" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="G137" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="141" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="F141" s="18"/>
-    </row>
+      <c r="J81" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="82" spans="7:10" s="31" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="83" spans="7:10" s="12" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
